--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -1462,7 +1462,7 @@
     <t>JP Core MedicationRequest DosageInstruction UsageDuration Extension</t>
   </si>
   <si>
-    <t>隔日投与など、服用開始日から終了日までの日数と実投与日数が異なる場合に、実投与日数を明⽰したい場合に使⽤する拡張</t>
+    <t>隔日投与など、服用開始日から終了日までの日数と実投与日数が異なる場合に、実投与日数を明⽰したい場合に使用する拡張</t>
   </si>
   <si>
     <t>periodOfUse</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -1459,10 +1459,10 @@
 </t>
   </si>
   <si>
-    <t>JP Core MedicationRequest DosageInstruction UsageDuration Extension</t>
-  </si>
-  <si>
-    <t>隔日投与など、服用開始日から終了日までの日数と実投与日数が異なる場合に、実投与日数を明⽰したい場合に使用する拡張</t>
+    <t>実投与日数</t>
+  </si>
+  <si>
+    <t>隔日投与などで実投与日数と処方期間が異なる場合に用いられる。</t>
   </si>
   <si>
     <t>periodOfUse</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -1266,7 +1266,7 @@
     <t>MedicationDispense.dosageInstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Dosage {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationDosage_Prescription}
+    <t xml:space="preserve">Dosage {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationDosage_Injection}
 </t>
   </si>
   <si>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="446">
   <si>
     <t>Property</t>
   </si>
@@ -620,10 +620,6 @@
   </si>
   <si>
     <t>MedicationDispense.medication[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
-</t>
   </si>
   <si>
     <t>What medication was supplied　医薬品</t>
@@ -644,6 +640,12 @@
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
+    <t>A coded concept identifying which substance or product can be dispensed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+  </si>
+  <si>
     <t xml:space="preserve">type:$this}
 </t>
   </si>
@@ -678,6 +680,9 @@
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
   </si>
   <si>
+    <t>処方する製剤を表すコード。</t>
+  </si>
+  <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
@@ -887,6 +892,10 @@
   </si>
   <si>
     <t>medicationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
+</t>
   </si>
   <si>
     <t>MedicationDispense.subject</t>
@@ -3647,16 +3656,16 @@
         <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3682,26 +3691,26 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>193</v>
@@ -3719,19 +3728,19 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18">
@@ -3739,7 +3748,7 @@
         <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>77</v>
@@ -3749,7 +3758,7 @@
         <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>77</v>
@@ -3764,13 +3773,13 @@
         <v>186</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3798,9 +3807,11 @@
       <c r="W18" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="X18" s="2"/>
+      <c r="X18" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="Y18" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>77</v>
@@ -3833,24 +3844,24 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3876,10 +3887,10 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3930,7 +3941,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -3948,7 +3959,7 @@
         <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -3962,7 +3973,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3988,10 +3999,10 @@
         <v>131</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>147</v>
@@ -4035,7 +4046,7 @@
         <v>134</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>77</v>
@@ -4044,7 +4055,7 @@
         <v>135</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4062,7 +4073,7 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4076,7 +4087,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4099,19 +4110,19 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
@@ -4160,7 +4171,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4178,7 +4189,7 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -4187,12 +4198,12 @@
         <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4218,10 +4229,10 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4272,7 +4283,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4290,7 +4301,7 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -4304,7 +4315,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4330,10 +4341,10 @@
         <v>131</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>147</v>
@@ -4377,7 +4388,7 @@
         <v>134</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>77</v>
@@ -4386,7 +4397,7 @@
         <v>135</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4404,7 +4415,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4418,7 +4429,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4444,16 +4455,16 @@
         <v>100</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -4502,7 +4513,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4520,7 +4531,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4529,12 +4540,12 @@
         <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4560,13 +4571,13 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4616,7 +4627,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4634,7 +4645,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4643,12 +4654,12 @@
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4674,14 +4685,14 @@
         <v>106</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4730,7 +4741,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4748,7 +4759,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4757,12 +4768,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4788,14 +4799,14 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4844,7 +4855,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4862,7 +4873,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4871,12 +4882,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4899,19 +4910,19 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -4960,7 +4971,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4978,7 +4989,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -4987,12 +4998,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5018,16 +5029,16 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5076,7 +5087,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5094,7 +5105,7 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5103,7 +5114,7 @@
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30">
@@ -5111,7 +5122,7 @@
         <v>193</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>77</v>
@@ -5133,16 +5144,16 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5207,24 +5218,24 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5247,16 +5258,16 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5306,7 +5317,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5321,24 +5332,24 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5361,16 +5372,16 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5420,7 +5431,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5435,10 +5446,10 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5452,7 +5463,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5475,16 +5486,16 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5534,7 +5545,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5552,10 +5563,10 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5566,7 +5577,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5589,13 +5600,13 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5646,7 +5657,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5661,10 +5672,10 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5678,7 +5689,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5704,10 +5715,10 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5758,7 +5769,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5776,7 +5787,7 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -5790,7 +5801,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5816,10 +5827,10 @@
         <v>131</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>147</v>
@@ -5872,7 +5883,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5890,7 +5901,7 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -5904,11 +5915,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5930,10 +5941,10 @@
         <v>131</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>147</v>
@@ -5988,7 +5999,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6020,7 +6031,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6046,14 +6057,14 @@
         <v>186</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6081,10 +6092,10 @@
         <v>180</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -6102,7 +6113,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6120,7 +6131,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6134,7 +6145,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6157,13 +6168,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6214,7 +6225,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>86</v>
@@ -6229,10 +6240,10 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6246,7 +6257,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6269,16 +6280,16 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6328,7 +6339,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6346,7 +6357,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6360,7 +6371,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6383,16 +6394,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6442,7 +6453,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6457,24 +6468,24 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6500,13 +6511,13 @@
         <v>186</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6535,10 +6546,10 @@
         <v>180</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>77</v>
@@ -6556,7 +6567,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6574,21 +6585,21 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6611,16 +6622,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6670,7 +6681,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6682,13 +6693,13 @@
         <v>142</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6697,12 +6708,12 @@
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6725,16 +6736,16 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6784,7 +6795,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6796,13 +6807,13 @@
         <v>142</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6811,12 +6822,12 @@
         <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6839,13 +6850,13 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6896,7 +6907,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6914,21 +6925,21 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6951,13 +6962,13 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7008,7 +7019,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7023,24 +7034,24 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7063,16 +7074,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7122,7 +7133,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7140,21 +7151,21 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7177,16 +7188,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7236,7 +7247,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7254,13 +7265,13 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7268,7 +7279,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7291,16 +7302,16 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7350,7 +7361,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7365,10 +7376,10 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7377,12 +7388,12 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7405,16 +7416,16 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7464,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7482,7 +7493,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7496,7 +7507,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7519,13 +7530,13 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7576,7 +7587,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7594,13 +7605,13 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7608,7 +7619,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7634,10 +7645,10 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7688,7 +7699,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7706,7 +7717,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7720,7 +7731,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7746,10 +7757,10 @@
         <v>131</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>147</v>
@@ -7802,7 +7813,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7820,7 +7831,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7834,11 +7845,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7860,10 +7871,10 @@
         <v>131</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>147</v>
@@ -7918,7 +7929,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -7950,7 +7961,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7973,13 +7984,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8030,7 +8041,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>86</v>
@@ -8048,7 +8059,7 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8062,7 +8073,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8088,13 +8099,13 @@
         <v>186</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8123,10 +8134,10 @@
         <v>180</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -8144,7 +8155,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8162,21 +8173,21 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8202,13 +8213,13 @@
         <v>186</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8237,28 +8248,28 @@
         <v>180</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8276,13 +8287,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8290,7 +8301,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8313,16 +8324,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8372,7 +8383,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8390,13 +8401,13 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8404,11 +8415,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8427,16 +8438,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8486,7 +8497,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8504,7 +8515,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8518,7 +8529,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8541,16 +8552,16 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8600,7 +8611,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8618,7 +8629,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="447">
   <si>
     <t>Property</t>
   </si>
@@ -280,7 +280,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -687,6 +687,10 @@
   </si>
   <si>
     <t>MedicationDispense.medication[x].id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3884,13 +3888,13 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3941,7 +3945,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -3959,7 +3963,7 @@
         <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -3973,7 +3977,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3999,10 +4003,10 @@
         <v>131</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>147</v>
@@ -4046,7 +4050,7 @@
         <v>134</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>77</v>
@@ -4055,7 +4059,7 @@
         <v>135</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4073,7 +4077,7 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4087,7 +4091,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4110,19 +4114,19 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
@@ -4171,7 +4175,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4189,7 +4193,7 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -4198,12 +4202,12 @@
         <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4226,13 +4230,13 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4283,7 +4287,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4301,7 +4305,7 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -4315,7 +4319,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4341,10 +4345,10 @@
         <v>131</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>147</v>
@@ -4388,7 +4392,7 @@
         <v>134</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>77</v>
@@ -4397,7 +4401,7 @@
         <v>135</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4415,7 +4419,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4429,7 +4433,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4455,16 +4459,16 @@
         <v>100</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -4513,7 +4517,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4531,7 +4535,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4540,12 +4544,12 @@
         <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4568,16 +4572,16 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4627,7 +4631,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4645,7 +4649,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4654,12 +4658,12 @@
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4685,14 +4689,14 @@
         <v>106</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4741,7 +4745,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4759,7 +4763,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4768,12 +4772,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4796,17 +4800,17 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4855,7 +4859,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4873,7 +4877,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4882,12 +4886,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4910,19 +4914,19 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -4971,7 +4975,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4989,7 +4993,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -4998,12 +5002,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5026,19 +5030,19 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5087,7 +5091,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5105,7 +5109,7 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5114,7 +5118,7 @@
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30">
@@ -5122,7 +5126,7 @@
         <v>193</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>77</v>
@@ -5144,7 +5148,7 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>207</v>
@@ -5235,7 +5239,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5258,16 +5262,16 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5317,7 +5321,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5332,24 +5336,24 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5372,16 +5376,16 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5431,7 +5435,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5446,10 +5450,10 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5463,7 +5467,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5486,16 +5490,16 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5545,7 +5549,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5563,10 +5567,10 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5577,7 +5581,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5600,13 +5604,13 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5657,7 +5661,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5672,10 +5676,10 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5689,7 +5693,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5712,13 +5716,13 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5769,7 +5773,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5787,7 +5791,7 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -5801,7 +5805,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5827,10 +5831,10 @@
         <v>131</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>147</v>
@@ -5883,7 +5887,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5901,7 +5905,7 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -5915,11 +5919,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5941,10 +5945,10 @@
         <v>131</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>147</v>
@@ -5999,7 +6003,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6031,7 +6035,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6057,14 +6061,14 @@
         <v>186</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6092,10 +6096,10 @@
         <v>180</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -6113,7 +6117,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6131,7 +6135,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6145,7 +6149,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6168,13 +6172,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6225,7 +6229,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>86</v>
@@ -6240,10 +6244,10 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6257,7 +6261,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6280,16 +6284,16 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6339,7 +6343,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6357,7 +6361,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6371,7 +6375,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6394,16 +6398,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6453,7 +6457,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6468,24 +6472,24 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6511,13 +6515,13 @@
         <v>186</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6546,10 +6550,10 @@
         <v>180</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>77</v>
@@ -6567,7 +6571,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6585,21 +6589,21 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6622,16 +6626,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6681,7 +6685,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6693,13 +6697,13 @@
         <v>142</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6708,12 +6712,12 @@
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6736,16 +6740,16 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6795,7 +6799,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6807,13 +6811,13 @@
         <v>142</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6822,12 +6826,12 @@
         <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6850,13 +6854,13 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6907,7 +6911,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6925,21 +6929,21 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6962,13 +6966,13 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7019,7 +7023,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7034,24 +7038,24 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7074,16 +7078,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7133,7 +7137,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7151,21 +7155,21 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7188,16 +7192,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7247,7 +7251,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7265,13 +7269,13 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7279,7 +7283,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7302,16 +7306,16 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7361,7 +7365,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7376,10 +7380,10 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7388,12 +7392,12 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7416,16 +7420,16 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7475,7 +7479,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7493,7 +7497,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7507,7 +7511,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7530,13 +7534,13 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7587,7 +7591,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7605,13 +7609,13 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7619,7 +7623,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7642,13 +7646,13 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7699,7 +7703,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7717,7 +7721,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7731,7 +7735,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7757,10 +7761,10 @@
         <v>131</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>147</v>
@@ -7813,7 +7817,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -7831,7 +7835,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7845,11 +7849,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7871,10 +7875,10 @@
         <v>131</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>147</v>
@@ -7929,7 +7933,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -7961,7 +7965,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7984,13 +7988,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8041,7 +8045,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>86</v>
@@ -8059,7 +8063,7 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8073,7 +8077,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8099,13 +8103,13 @@
         <v>186</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8134,10 +8138,10 @@
         <v>180</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -8155,7 +8159,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8173,21 +8177,21 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8213,13 +8217,13 @@
         <v>186</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8248,10 +8252,10 @@
         <v>180</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8269,7 +8273,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8287,13 +8291,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8301,7 +8305,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8324,16 +8328,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8383,7 +8387,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8401,13 +8405,13 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8415,11 +8419,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8438,16 +8442,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8497,7 +8501,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8515,7 +8519,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8529,7 +8533,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8552,16 +8556,16 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8611,7 +8615,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8629,7 +8633,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="381">
   <si>
     <t>Property</t>
   </si>
@@ -620,6 +620,10 @@
   </si>
   <si>
     <t>MedicationDispense.medication[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Medication)
+</t>
   </si>
   <si>
     <t>What medication was supplied　医薬品</t>
@@ -640,12 +644,6 @@
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
-    <t>A coded concept identifying which substance or product can be dispensed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
     <t xml:space="preserve">type:$this}
 </t>
   </si>
@@ -668,25 +666,104 @@
     <t>RXD-2-Dispense/Give Code</t>
   </si>
   <si>
-    <t>medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>What medication was supplied</t>
-  </si>
-  <si>
-    <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>処方する製剤を表すコード。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x].id</t>
+    <t>medicationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
+</t>
+  </si>
+  <si>
+    <t>MedicationDispense.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient)
+</t>
+  </si>
+  <si>
+    <t>Who received medication　投与対象患者</t>
+  </si>
+  <si>
+    <t>The person or animal or group receiving the medication.
+投与を受ける患者</t>
+  </si>
+  <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>PID-3-Patient ID List</t>
+  </si>
+  <si>
+    <t>MedicationDispense.context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter|EpisodeOfCare)
+</t>
+  </si>
+  <si>
+    <t>Encounter / Episode associated with event　調剤ベントに関連するエンカウンターやエピソード</t>
+  </si>
+  <si>
+    <t>The encounter or episode of care that establishes the context for this event.
+調剤ベントに関連するエンカウンターやエピソードへの参照。</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN, code="type of encounter or episode"]</t>
+  </si>
+  <si>
+    <t>MedicationDispense.supportingInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Information that supports the dispensing of the medication　薬の調剤をサポートする情報</t>
+  </si>
+  <si>
+    <t>Additional information that supports the medication being dispensed.
+調剤される薬剤をサポートする追加情報への任意のリソースへの参照。</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>MedicationDispense.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Who performed event　調剤を実施した人</t>
+  </si>
+  <si>
+    <t>Indicates who or what performed the event.
+調剤した人を示す</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>MedicationDispense.performer.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -705,7 +782,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>MedicationDispense.medication[x].extension</t>
+    <t>MedicationDispense.performer.extension</t>
   </si>
   <si>
     <t>Additional content defined by implementations</t>
@@ -714,288 +791,7 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x].coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system コード集で定義された医薬品コード</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.
-コード集で定義された医薬品コードへの情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x].coding.id</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x].coding.extension</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x].coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x].coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x].coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
-</t>
-  </si>
-  <si>
-    <t>MedicationDispense.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient)
-</t>
-  </si>
-  <si>
-    <t>Who received medication　投与対象患者</t>
-  </si>
-  <si>
-    <t>The person or animal or group receiving the medication.
-投与を受ける患者</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>PID-3-Patient ID List</t>
-  </si>
-  <si>
-    <t>MedicationDispense.context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter|EpisodeOfCare)
-</t>
-  </si>
-  <si>
-    <t>Encounter / Episode associated with event　調剤ベントに関連するエンカウンターやエピソード</t>
-  </si>
-  <si>
-    <t>The encounter or episode of care that establishes the context for this event.
-調剤ベントに関連するエンカウンターやエピソードへの参照。</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN, code="type of encounter or episode"]</t>
-  </si>
-  <si>
-    <t>MedicationDispense.supportingInformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Information that supports the dispensing of the medication　薬の調剤をサポートする情報</t>
-  </si>
-  <si>
-    <t>Additional information that supports the medication being dispensed.
-調剤される薬剤をサポートする追加情報への任意のリソースへの参照。</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>MedicationDispense.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Who performed event　調剤を実施した人</t>
-  </si>
-  <si>
-    <t>Indicates who or what performed the event.
-調剤した人を示す</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>MedicationDispense.performer.id</t>
-  </si>
-  <si>
-    <t>MedicationDispense.performer.extension</t>
   </si>
   <si>
     <t>MedicationDispense.performer.modifierExtension</t>
@@ -1322,6 +1118,10 @@
   </si>
   <si>
     <t>MedicationDispense.substitution.wasSubstituted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
   </si>
   <si>
     <t>Whether a substitution was or was not performed on the dispense　調剤で置換が実行されたか、あるいはされていないかを'true'または'false'で表す。</t>
@@ -1762,7 +1562,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN60"/>
+  <dimension ref="A1:AN48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1771,8 +1571,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.05078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.12109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.62890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1798,7 +1598,7 @@
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="46.84375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3660,16 +3460,16 @@
         <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3695,26 +3495,26 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA17" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>193</v>
@@ -3732,19 +3532,19 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="18">
@@ -3752,17 +3552,17 @@
         <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>77</v>
@@ -3774,16 +3574,16 @@
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3809,13 +3609,13 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>77</v>
@@ -3848,24 +3648,24 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3873,7 +3673,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>86</v>
@@ -3885,18 +3685,20 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -3945,7 +3747,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -3957,38 +3759,38 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>77</v>
@@ -4000,16 +3802,16 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4047,37 +3849,37 @@
         <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4091,7 +3893,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4099,7 +3901,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>79</v>
@@ -4111,23 +3913,21 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4175,7 +3975,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4193,21 +3993,21 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4218,7 +4018,7 @@
         <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>77</v>
@@ -4230,13 +4030,13 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4287,25 +4087,25 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -4319,18 +4119,18 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -4342,17 +4142,15 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4389,37 +4187,37 @@
         <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4433,18 +4231,18 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>77</v>
@@ -4453,23 +4251,21 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4517,26 +4313,26 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4544,46 +4340,48 @@
         <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4631,25 +4429,25 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4658,7 +4456,7 @@
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
@@ -4671,7 +4469,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>86</v>
@@ -4683,10 +4481,10 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>250</v>
@@ -4721,13 +4519,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4745,7 +4543,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4763,7 +4561,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4772,7 +4570,7 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -4785,7 +4583,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>86</v>
@@ -4797,21 +4595,19 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>259</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4859,10 +4655,10 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
@@ -4874,7 +4670,7 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>261</v>
@@ -4886,12 +4682,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4911,23 +4707,21 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>266</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4975,7 +4769,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4993,7 +4787,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5002,12 +4796,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5018,7 +4812,7 @@
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>77</v>
@@ -5027,23 +4821,21 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5091,13 +4883,13 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>77</v>
@@ -5106,28 +4898,26 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5145,19 +4935,19 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>281</v>
+        <v>186</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>207</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5183,13 +4973,13 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>77</v>
@@ -5207,10 +4997,10 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>193</v>
+        <v>276</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>86</v>
@@ -5222,24 +5012,24 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>202</v>
+        <v>282</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>205</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5259,19 +5049,19 @@
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5321,7 +5111,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5330,30 +5120,30 @@
         <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>98</v>
+        <v>290</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5376,16 +5166,16 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5435,7 +5225,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5444,16 +5234,16 @@
         <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>98</v>
+        <v>290</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5462,12 +5252,12 @@
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5478,7 +5268,7 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>77</v>
@@ -5487,20 +5277,18 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>286</v>
-      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5549,13 +5337,13 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
@@ -5567,16 +5355,16 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -5589,10 +5377,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5604,13 +5392,13 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5667,7 +5455,7 @@
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
@@ -5676,24 +5464,24 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AK34" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5716,15 +5504,17 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>214</v>
+        <v>309</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5773,7 +5563,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>216</v>
+        <v>308</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5785,31 +5575,31 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>217</v>
+        <v>311</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5828,16 +5618,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>131</v>
+        <v>315</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>219</v>
+        <v>316</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>220</v>
+        <v>317</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5887,7 +5677,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>222</v>
+        <v>314</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5899,19 +5689,19 @@
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>217</v>
+        <v>318</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5919,11 +5709,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5936,26 +5726,24 @@
         <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>131</v>
+        <v>321</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6003,7 +5791,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6015,13 +5803,13 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>129</v>
+        <v>326</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6030,12 +5818,12 @@
         <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6046,7 +5834,7 @@
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>77</v>
@@ -6058,18 +5846,18 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>186</v>
+        <v>329</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6093,13 +5881,13 @@
         <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -6117,13 +5905,13 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>77</v>
@@ -6135,7 +5923,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6149,7 +5937,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6157,7 +5945,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>86</v>
@@ -6172,13 +5960,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>324</v>
+        <v>229</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6229,10 +6017,10 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>86</v>
@@ -6244,16 +6032,16 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6261,7 +6049,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6284,17 +6072,15 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>330</v>
+        <v>235</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>331</v>
+        <v>236</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6343,7 +6129,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>329</v>
+        <v>238</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6355,13 +6141,13 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>333</v>
+        <v>239</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6375,11 +6161,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6398,16 +6184,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>335</v>
+        <v>131</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>336</v>
+        <v>241</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>337</v>
+        <v>242</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>338</v>
+        <v>147</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6457,7 +6243,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>334</v>
+        <v>243</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6469,61 +6255,63 @@
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>339</v>
+        <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>340</v>
+        <v>239</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>344</v>
+        <v>246</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>345</v>
+        <v>247</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6547,13 +6335,13 @@
         <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>77</v>
@@ -6571,39 +6359,39 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>343</v>
+        <v>248</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>349</v>
+        <v>129</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>350</v>
+        <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6626,17 +6414,15 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6685,25 +6471,25 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>357</v>
+        <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6712,12 +6498,12 @@
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6740,16 +6526,16 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>353</v>
+        <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6775,13 +6561,13 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -6799,7 +6585,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6808,30 +6594,30 @@
         <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>357</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>358</v>
+        <v>282</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>353</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6842,7 +6628,7 @@
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
@@ -6851,18 +6637,20 @@
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>364</v>
+        <v>186</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -6887,13 +6675,13 @@
         <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
@@ -6911,13 +6699,13 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
@@ -6929,21 +6717,21 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6951,10 +6739,10 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -6966,15 +6754,17 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="K46" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="L46" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7023,13 +6813,13 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
@@ -7038,35 +6828,35 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -7078,16 +6868,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>286</v>
+        <v>373</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7137,13 +6927,13 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
@@ -7155,21 +6945,21 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>380</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7192,16 +6982,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>286</v>
+        <v>379</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7251,7 +7041,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7269,1379 +7059,15 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>386</v>
+        <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN60" t="s" s="2">
         <v>77</v>
       </c>
     </row>
